--- a/src/test/resources/Exceldata/LoanElibilityData.xlsx
+++ b/src/test/resources/Exceldata/LoanElibilityData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanilped\Documents\Java Training\MagicBricks\src\test\resources\Exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Basic Java\MagicBricksAutomation\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A32CAD-9008-44FB-A1A6-268B6D0F505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C010C92-B9F2-4B4A-88C2-9C3BBC7DA6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2800" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoanEligibiltyData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="LoanEligibiltyDataPositive" sheetId="1" r:id="rId1"/>
+    <sheet name="LoanEligibiltyDataNegative" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Monthly_Income</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>Monthly_EMI</t>
+  </si>
+  <si>
+    <t>1522.08 Cr</t>
+  </si>
+  <si>
+    <t>6.99 Cr</t>
+  </si>
+  <si>
+    <t>1.67 Lac</t>
+  </si>
+  <si>
+    <t>1.68 Lac</t>
+  </si>
+  <si>
+    <t>167.99 Cr</t>
   </si>
 </sst>
 </file>
@@ -95,9 +110,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,100 +457,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD81A895-4557-4157-BB02-505B4DD6CAA3}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5609000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>50000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2800000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>150000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7500000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>72000</v>
+      <c r="F7" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -535,15 +660,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA7065-2AC7-46BE-B563-5402E60A3AA5}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,64 +691,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9999</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
-        <v>5609000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>50000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2800000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>150000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7500000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>72000</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>100000001</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9999</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>100000001</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -636,9 +760,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>80000</v>
       </c>
@@ -658,7 +782,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>120000</v>
       </c>
@@ -678,7 +802,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>40000</v>
       </c>
@@ -698,7 +822,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>200000</v>
       </c>
@@ -718,7 +842,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60000</v>
       </c>
@@ -738,7 +862,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>90000</v>
       </c>
@@ -758,7 +882,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100000</v>
       </c>

--- a/src/test/resources/Exceldata/LoanElibilityData.xlsx
+++ b/src/test/resources/Exceldata/LoanElibilityData.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Basic Java\MagicBricksAutomation\src\test\resources\Exceldata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C010C92-B9F2-4B4A-88C2-9C3BBC7DA6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{52ABEE29-5369-492C-872D-C8EF5011E49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEligibiltyDataPositive" sheetId="1" r:id="rId1"/>
     <sheet name="LoanEligibiltyDataNegative" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Monthly_Income</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Monthly_EMI</t>
   </si>
   <si>
-    <t>1522.08 Cr</t>
-  </si>
-  <si>
     <t>6.99 Cr</t>
   </si>
   <si>
@@ -60,6 +54,15 @@
   </si>
   <si>
     <t>167.99 Cr</t>
+  </si>
+  <si>
+    <t>4.09 Lac</t>
+  </si>
+  <si>
+    <t>409.50 Cr</t>
+  </si>
+  <si>
+    <t>7 Cr</t>
   </si>
 </sst>
 </file>
@@ -110,19 +113,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,197 +460,197 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>99999999</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="F6" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>10001</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>99999999</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>99999999</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>10001</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>99999999</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -663,15 +663,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,61 +692,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>9999</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>-1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>100000001</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>-1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>9999</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>51</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>100000001</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>51</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -753,6 +762,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD96E01-8FA0-4B09-9CD5-FBED54C473A3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B6906-CD96-4A96-971D-500381C88DF6}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -760,9 +781,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>80000</v>
       </c>
@@ -782,7 +803,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>120000</v>
       </c>
@@ -802,7 +823,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>40000</v>
       </c>
@@ -822,7 +843,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>200000</v>
       </c>
@@ -842,7 +863,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>60000</v>
       </c>
@@ -862,7 +883,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>90000</v>
       </c>
@@ -882,7 +903,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>100000</v>
       </c>

--- a/src/test/resources/Exceldata/LoanElibilityData.xlsx
+++ b/src/test/resources/Exceldata/LoanElibilityData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{52ABEE29-5369-492C-872D-C8EF5011E49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanilped\Documents\Java Training\MagicBricks\src\test\resources\Exceldata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D90E79-8C27-4B21-912C-8957B08B635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEligibiltyDataPositive" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Monthly_Income</t>
   </si>
@@ -459,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD81A895-4557-4157-BB02-505B4DD6CAA3}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -660,19 +664,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA7065-2AC7-46BE-B563-5402E60A3AA5}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,14 +691,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>9999</v>
       </c>
@@ -705,10 +705,8 @@
       <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>100000001</v>
       </c>
@@ -721,10 +719,8 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>9999</v>
       </c>
@@ -737,10 +733,8 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>100000001</v>
       </c>
@@ -753,8 +747,6 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Exceldata/LoanElibilityData.xlsx
+++ b/src/test/resources/Exceldata/LoanElibilityData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanilped\Documents\Java Training\MagicBricks\src\test\resources\Exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Basic Java\MagicBricksAutomation\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D90E79-8C27-4B21-912C-8957B08B635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB93068-5963-4AA9-839E-39CF3F57E49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEligibiltyDataPositive" sheetId="1" r:id="rId1"/>
@@ -464,20 +464,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -517,7 +517,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10001</v>
       </c>
@@ -537,7 +537,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>99999999</v>
       </c>
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>100000000</v>
       </c>
@@ -577,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -597,7 +597,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10001</v>
       </c>
@@ -617,7 +617,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>99999999</v>
       </c>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>100000000</v>
       </c>
@@ -670,15 +670,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>9999</v>
       </c>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>100000001</v>
       </c>
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9999</v>
       </c>
@@ -734,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100000001</v>
       </c>
@@ -759,7 +759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -773,9 +773,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>80000</v>
       </c>
@@ -795,7 +795,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>120000</v>
       </c>
@@ -815,7 +815,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>40000</v>
       </c>
@@ -835,7 +835,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>200000</v>
       </c>
@@ -855,7 +855,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60000</v>
       </c>
@@ -875,7 +875,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>90000</v>
       </c>
@@ -895,7 +895,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100000</v>
       </c>

--- a/src/test/resources/Exceldata/LoanElibilityData.xlsx
+++ b/src/test/resources/Exceldata/LoanElibilityData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Basic Java\MagicBricksAutomation\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB93068-5963-4AA9-839E-39CF3F57E49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9D788-621F-425B-8846-BAA9C9450FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEligibiltyDataPositive" sheetId="1" r:id="rId1"/>
     <sheet name="LoanEligibiltyDataNegative" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="BalTransferPositiveData" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Monthly_Income</t>
   </si>
@@ -67,6 +67,36 @@
   </si>
   <si>
     <t>7 Cr</t>
+  </si>
+  <si>
+    <t>Loan_Amount</t>
+  </si>
+  <si>
+    <t>Tenure_Current</t>
+  </si>
+  <si>
+    <t>Rate_of_Interest_Current</t>
+  </si>
+  <si>
+    <t>Installments_Paid</t>
+  </si>
+  <si>
+    <t>Processing_Fees</t>
+  </si>
+  <si>
+    <t>Tenure_New</t>
+  </si>
+  <si>
+    <t>Rate_of_Interest_New</t>
+  </si>
+  <si>
+    <t>Saved_Interest</t>
+  </si>
+  <si>
+    <t>Outstanding_Principal</t>
+  </si>
+  <si>
+    <t>New_EMI</t>
   </si>
 </sst>
 </file>
@@ -117,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -127,6 +157,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD81A895-4557-4157-BB02-505B4DD6CAA3}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -755,12 +788,379 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD96E01-8FA0-4B09-9CD5-FBED54C473A3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2500000</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>127468</v>
+      </c>
+      <c r="I2">
+        <v>1923438</v>
+      </c>
+      <c r="J2">
+        <v>33038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3000000</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>9.5</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>235920</v>
+      </c>
+      <c r="I3">
+        <v>2601560</v>
+      </c>
+      <c r="J3">
+        <v>28450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2000000</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>152870</v>
+      </c>
+      <c r="I4">
+        <v>1624325</v>
+      </c>
+      <c r="J4">
+        <v>22210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4000000</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>398765</v>
+      </c>
+      <c r="I5">
+        <v>3410540</v>
+      </c>
+      <c r="J5">
+        <v>38590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1500000</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>97540</v>
+      </c>
+      <c r="I6">
+        <v>1325460</v>
+      </c>
+      <c r="J6">
+        <v>19820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5000000</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>586430</v>
+      </c>
+      <c r="I7">
+        <v>4512760</v>
+      </c>
+      <c r="J7">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3500000</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>322675</v>
+      </c>
+      <c r="I8">
+        <v>2986720</v>
+      </c>
+      <c r="J8">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2800000</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>214900</v>
+      </c>
+      <c r="I9">
+        <v>2140560</v>
+      </c>
+      <c r="J9">
+        <v>30840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1000000</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>65480</v>
+      </c>
+      <c r="I10">
+        <v>876320</v>
+      </c>
+      <c r="J10">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4500000</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>9.9</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>441290</v>
+      </c>
+      <c r="I11">
+        <v>3898450</v>
+      </c>
+      <c r="J11">
+        <v>42200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/Exceldata/LoanElibilityData.xlsx
+++ b/src/test/resources/Exceldata/LoanElibilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Basic Java\MagicBricksAutomation\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9D788-621F-425B-8846-BAA9C9450FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD9265D-C8E4-4DCF-8480-761B38BD361D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CD5858B3-2AB2-4248-86D4-F801C4828A70}"/>
   </bookViews>
@@ -157,7 +157,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,7 +497,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -551,8 +551,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>10001</v>
+      <c r="A3" s="3">
+        <v>99999999</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -564,15 +564,15 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7000</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>99999999</v>
+        <v>100000000</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -587,32 +587,32 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>100000000</v>
+      <c r="A5" s="2">
+        <v>10000</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -624,15 +624,15 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <v>7000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>10001</v>
+      <c r="A7" s="3">
+        <v>99999999</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -644,15 +644,15 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7000</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>99999999</v>
+        <v>100000000</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -671,23 +671,23 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>100000000</v>
+      <c r="A9" s="2">
+        <v>10001</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD96E01-8FA0-4B09-9CD5-FBED54C473A3}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,323 +841,131 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2500000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>127468</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>1923438</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>33038</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>3000000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>9.5</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>60</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3">
-        <v>235920</v>
-      </c>
-      <c r="I3">
-        <v>2601560</v>
-      </c>
-      <c r="J3">
-        <v>28450</v>
+      <c r="H3" s="4">
+        <v>130137</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2402038</v>
+      </c>
+      <c r="J3" s="4">
+        <v>30428</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2000000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>36</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>9</v>
       </c>
-      <c r="H4">
-        <v>152870</v>
-      </c>
-      <c r="I4">
-        <v>1624325</v>
-      </c>
-      <c r="J4">
-        <v>22210</v>
+      <c r="H4" s="4">
+        <v>279705</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1714163</v>
+      </c>
+      <c r="J4" s="4">
+        <v>25071</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4000000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>8</v>
       </c>
-      <c r="H5">
-        <v>398765</v>
-      </c>
-      <c r="I5">
-        <v>3410540</v>
-      </c>
-      <c r="J5">
-        <v>38590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1500000</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>97540</v>
-      </c>
-      <c r="I6">
-        <v>1325460</v>
-      </c>
-      <c r="J6">
-        <v>19820</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5000000</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>180</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>586430</v>
-      </c>
-      <c r="I7">
-        <v>4512760</v>
-      </c>
-      <c r="J7">
-        <v>47880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3500000</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>72</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>322675</v>
-      </c>
-      <c r="I8">
-        <v>2986720</v>
-      </c>
-      <c r="J8">
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2800000</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>214900</v>
-      </c>
-      <c r="I9">
-        <v>2140560</v>
-      </c>
-      <c r="J9">
-        <v>30840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1000000</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>65480</v>
-      </c>
-      <c r="I10">
-        <v>876320</v>
-      </c>
-      <c r="J10">
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>4500000</v>
-      </c>
-      <c r="B11">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>9.9</v>
-      </c>
-      <c r="D11">
-        <v>120</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>441290</v>
-      </c>
-      <c r="I11">
-        <v>3898450</v>
-      </c>
-      <c r="J11">
-        <v>42200</v>
+      <c r="H5" s="4">
+        <v>134264</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3182662</v>
+      </c>
+      <c r="J5" s="4">
+        <v>38601</v>
       </c>
     </row>
   </sheetData>
